--- a/medicine/Enfance/Erin_Hunter/Erin_Hunter.xlsx
+++ b/medicine/Enfance/Erin_Hunter/Erin_Hunter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erin Hunter est le pseudonyme commun de trois romancières britanniques, Kate Cary, Cherith Baldry et Victoria Holmes, rejointes ensuite par l'Américaine Tui Sutherland, l'Israélienne Inbali Iserles et les Britanniques Gillian Philip et Rosie Best. Ces écrivaines se relaient pour écrire les livres des séries La Guerre des clans, La Quête des ours, Survivants, Bravelands, ainsi que Les Messagers du dragon. Elles ont inventé le nom Erin Hunter pour faciliter la recherche de leurs livres dans les librairies ou bibliothèques.
 </t>
@@ -513,64 +525,376 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Univers La Guerre des clans
-Cycle I : La Guerre des clans
-Retour à l'état sauvage, Pocket Jeunesse, 2005 ((en) Into the Wild, 2003)
+          <t>Univers La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cycle I : La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Retour à l'état sauvage, Pocket Jeunesse, 2005 ((en) Into the Wild, 2003)
 À feu et à sang, Pocket Jeunesse, 2005 ((en) Fire and Ice, 2003)
 Les Mystères de la forêt, Pocket Jeunesse, 2006 ((en) Forest of Secrets, 2003)
 Avant la tempête, Pocket Jeunesse, 2007 ((en) Rising Storm, 2004)
 Sur le sentier de la guerre, Pocket Jeunesse, 2007 ((en) A Dangerous Path, 2004)
-Une sombre prophétie, Pocket Jeunesse, 2008 ((en) The Darkest Hour, 2004)
-Cycle II : La Dernière Prophétie
-Minuit, Pocket Jeunesse, 2008 ((en) Midnight, 2005)
+Une sombre prophétie, Pocket Jeunesse, 2008 ((en) The Darkest Hour, 2004)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Univers La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cycle II : La Dernière Prophétie</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Minuit, Pocket Jeunesse, 2008 ((en) Midnight, 2005)
 Clair de lune, Pocket Jeunesse, 2009 ((en) Moonrise, 2005)
 Aurore, Pocket Jeunesse, 2009 ((en) Dawn, 2005)
 Nuit étoilée, Pocket Jeunesse, 2010 ((en) Starlight, 2006)
 Crépuscule, Pocket Jeunesse, 2010 ((en) Twilight, 2006)
-Coucher de soleil, Pocket Jeunesse, 2011 ((en) Sunset, 2007)
-Cycle III : Le Pouvoir des Étoiles
-Vision, Pocket Jeunesse, 2011 ((en) The Sight, 2007)
+Coucher de soleil, Pocket Jeunesse, 2011 ((en) Sunset, 2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Univers La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cycle III : Le Pouvoir des Étoiles</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vision, Pocket Jeunesse, 2011 ((en) The Sight, 2007)
 Rivière noire, Pocket Jeunesse, 2012 ((en) Dark River, 2007)
 Exil, Pocket Jeunesse, 2012 ((en) Outcast, 2008)
 Éclipse, Pocket Jeunesse, 2013 ((en) Eclipse, 2008)
 Pénombre, Pocket Jeunesse, 2013 ((en) Long Shadows, 2008)
-Soleil levant, Pocket Jeunesse, 2014 ((en) Sunrise, 2009)
-Cycle IV : Les Signes du destin
-La Quatrième Apprentie, Pocket Jeunesse, 2014 ((en) The Fourth Apprentice, 2009)
+Soleil levant, Pocket Jeunesse, 2014 ((en) Sunrise, 2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Univers La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cycle IV : Les Signes du destin</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Quatrième Apprentie, Pocket Jeunesse, 2014 ((en) The Fourth Apprentice, 2009)
 Un écho lointain, Pocket Jeunesse, 2015 ((en) Fading Echoes, 2010)
 Des murmures dans la nuit, Pocket Jeunesse, 2015 ((en) Night Whispers, 2010)
 L'Empreinte de la lune, Pocket Jeunesse, 2016 ((en) Sign of the Moon, 2011)
 La Guerrière oubliée, Pocket Jeunesse, 2016 ((en) The Forgotten Warrior, 2011)
-Le Dernier Espoir, Pocket Jeunesse, 2017 ((en) The Last Hope, 2012)
-Cycle V : L'Aube des clans
-Le Sentier du soleil, Pocket Jeunesse, 2017 ((en) The Sun Trail, 2013)
+Le Dernier Espoir, Pocket Jeunesse, 2017 ((en) The Last Hope, 2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Univers La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cycle V : L'Aube des clans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Sentier du soleil, Pocket Jeunesse, 2017 ((en) The Sun Trail, 2013)
 Coup de tonnerre, Pocket Jeunesse, 2018 ((en) Thunder Rising, 2013)
 La Première Bataille, Pocket Jeunesse, 2018 ((en) The First Battle, 2014)
 L'Étoile flamboyante, Pocket Jeunesse, 2019 ((en) Blazing Star, 2014)
 Une forêt divisée, Pocket Jeunesse, 2019 ((en) A Forest Divided, 2015)
-Le Sentier des étoiles, Pocket Jeunesse, 2020 ((en) Path of Stars, 2015)
-Cycle VI : De l'ombre à la lumière
-La Quête de l'apprenti, Pocket Jeunesse, 2020 ((en) The Apprentice's Quest, 2016)
+Le Sentier des étoiles, Pocket Jeunesse, 2020 ((en) Path of Stars, 2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Univers La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cycle VI : De l'ombre à la lumière</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Quête de l'apprenti, Pocket Jeunesse, 2020 ((en) The Apprentice's Quest, 2016)
 Ombre et Tonnerre, Pocket Jeunesse, 2021 ((en) Thunder and Shadow, 2016)
 Éclats de Ciel, Pocket Jeunesse, 2021 ((en) Shattered Sky, 2017)
 Péril nocturne, Pocket Jeunesse, 2022 ((en) Darkest Night, 2017)
 La Rivière de feu, Pocket Jeunesse, 2022 ((en) River of Fire, 2018)
-Au cœur de la tourmente, Pocket Jeunesse, 2023 ((en) The Raging Storm, 2018)
-Cycle VII : La Trahison du code
-Étoiles perdues, Pocket Jeunesse, 2023 ((en) Lost Stars, 2019), 336 p.  (ISBN 978-2-266-33168-5)
+Au cœur de la tourmente, Pocket Jeunesse, 2023 ((en) The Raging Storm, 2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Univers La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cycle VII : La Trahison du code</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Étoiles perdues, Pocket Jeunesse, 2023 ((en) Lost Stars, 2019), 336 p.  (ISBN 978-2-266-33168-5)
 L'Imposteur, Pocket Jeunesse, 2024 ((en) The Silent Thaw, 2019), 384 p.  (ISBN 978-2-266-33448-8)
 (en) Veil of Shadows, 2020
 (en) Darkness Within, 2020
 (en) The Place of No Stars, 2021
-(en) A Light in the Mist, 2021
-Cycle VIII : A Starless Clan
-(en) River, 2022
+(en) A Light in the Mist, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Univers La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cycle VIII : A Starless Clan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en) River, 2022
 (en) Sky, 2022
 (en) Shadow, 2023
 (en) Thunder, 2023
-(en) Wind, 2024
-Hors-série
-La Quête d’Étoile de Feu, Pocket Jeunesse, 2010 ((en) Firestar's Quest, 2007)
+(en) Wind, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Univers La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hors-série</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La Quête d’Étoile de Feu, Pocket Jeunesse, 2010 ((en) Firestar's Quest, 2007)
 La Prophétie d'Étoile Bleue, Pocket Jeunesse, 2013 ((en) Bluestar's Prophecy, 2009)
 Le Destin d'Étoile de Feuille, Pocket Jeunesse, 2020 ((en) Skyclan's Destiny, 2010)
 La Promesse de l'élu, Pocket Jeunesse, 2014 ((en) Crookedstar's Promise, 2011)
@@ -586,9 +910,47 @@
 (en) Leopardstar's Honor, 2021
 (en) Onestar's Confession, 2022
 (en) Riverstar's Home, 2023
-(en) Ivypool's Heart, 2024À paraître le 3 septembre 2024
-Livres numériques
-Les livres numériques sont regroupés par trois en édition papier.
+(en) Ivypool's Heart, 2024À paraître le 3 septembre 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Univers La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Livres numériques</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les livres numériques sont regroupés par trois en édition papier.
 (en) The Untold Stories, 2013
 L'Histoire de Feuille de Houx, 1221, 2020 ((en) Hollyleaf's Story, 2012)
 Le Signe d'Étoile de Brume, 1221, 2020 ((en) Mistystar's Omen, 2012)
@@ -616,9 +978,47 @@
 (en) A Warrior's Choice, 2021
 (en) Daisy's Kin, 2021
 (en) Blackfoot's Reckoning, 2021
-(en) Spotfur's Rebellion, 2021
-Romans illustrés
-Série Les Aventures de Plume Grise
+(en) Spotfur's Rebellion, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Univers La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Romans illustrés</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Série Les Aventures de Plume Grise
 Cette trilogie se déroule entre le tome 3 du cycle 2 et le tome 1 du cycle 3. Plume Grise, capturé par les Bipèdes, tente de retrouver son Clan avec l’aide de Millie, sa nouvelle amie. Grâce à un ancien compagnon (Nuage de Jais), Étoile de Feu retrouvera son meilleur ami.
 Le Guerrier perdu, Pocket Jeunesse, 2013 ((en) The Lost Warrior, 2007)
 Le Refuge du guerrier, Pocket Jeunesse, 2013 ((en) Warrior's Refuge, 2007)
@@ -646,9 +1046,47 @@
 Le Vent du changement, Pocket Jeunesse, 2023 ((en) Winds of Change, 2021), 208 p.  (ISBN 978-2-266-33086-2)
 L'Exil de Lune Noire, Pocket Jeunesse, 2024 ((en) Exile from Shadowclan, 2022), 208 p.  (ISBN 978-2-266-34183-7)
 Le Clan de l'Ombre fait face à deux voies. Un seul sauvera son héritage. Au bord d'une terrible saison des feuilles mortes, le Clan de l'Ombre est au bord de sa propre destruction. Son chef, Etoile Brisée, ne pense qu'à se battre et à se venger. Son ancien mentor, le guerrier retraité Lune Noire, n'a pas eu un parcours facile, mais il a toujours fait passer ses compagnons de clan en premier. Aussi, lorsque Étoile Brisée bannit Lune Noire et le reste des anciens du Clan de l'Ombre aux confins du territoire du clan, Lune Noire est choqué par sa cruauté. Mais il est déterminé à s'assurer que lui et ses compagnons exilés survivent au gel à venir - et vivent pour réclamer le Clan de l'Ombre qu'ils ont toujours connu.
-(en) A Thief in ThunderClan, 2023
-Histoires courtes
-(en) Tigerstar: Heart of Evil or Misplaced Ambition?, 2009
+(en) A Thief in ThunderClan, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Univers La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Histoires courtes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(en) Tigerstar: Heart of Evil or Misplaced Ambition?, 2009
 (en) Why is Jaypaw Blind?, 2009
 (en) Beyond the Code: Brightspirit's Mercy, 2009
 (en) The Clans Decide, 2009
@@ -656,72 +1094,555 @@
 (en) After Sunset: We Need to Talk, 2009
 (en) After Sunset: The Right Choice?, 2011
 (en) The Elders' Concern, 2011
-(en) The Death of Bright Stream, 2011
-Guides
-(en) Secrets of the Clans, 2007
+(en) The Death of Bright Stream, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Univers La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Guides</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(en) Secrets of the Clans, 2007
 (en) Cats of the Clans, 2008
 (en) Code of the Clans, 2009
 (en) Battles of the Clans, 2010
 Le Guide illustré, Pocket Jeunesse, 2017 ((en) Enter the Clans, 2012)
-(en) The Ultimate Guide, 2013
-Univers La Quête des ours
-Cette série suit les aventures de trois oursons (une ourse polaire, Kallik, un grizzly, Toklo, et une ourse noire, Lusa) qui voient leur monde de plus en plus menacé par l'intervention des hommes. Ils vont devoir s'unir pour survivre.
-Cycle I
-L'aventure commence, Pocket Jeunesse, 2013 ((en) The Quest Begins, 2008)
+(en) The Ultimate Guide, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Univers La Quête des ours</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette série suit les aventures de trois oursons (une ourse polaire, Kallik, un grizzly, Toklo, et une ourse noire, Lusa) qui voient leur monde de plus en plus menacé par l'intervention des hommes. Ils vont devoir s'unir pour survivre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Univers La Quête des ours</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Cycle I</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>L'aventure commence, Pocket Jeunesse, 2013 ((en) The Quest Begins, 2008)
 Le Mystère du lac sacré, Pocket Jeunesse, 2013 ((en) Great Bear Lake, 2009)
 Le Géant de feu, Pocket Jeunesse, 2014 ((en) Smoke Mountain, 2009)
 Les Dernières Contrées sauvages, Pocket Jeunesse, 2014 ((en) The Last Wilderness, 2010)
 Le Feu du ciel, Pocket Jeunesse, 2015 ((en) Fire in the Sky, 2010)
-Les Esprits des étoiles, Pocket Jeunesse, 2015 ((en) Spirits in the Stars, 2011)
-Cycle II
-L'Île des ombres, Pocket Jeunesse, 2016 ((en) Island of Shadows, 2012)
+Les Esprits des étoiles, Pocket Jeunesse, 2015 ((en) Spirits in the Stars, 2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Univers La Quête des ours</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Cycle II</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>L'Île des ombres, Pocket Jeunesse, 2016 ((en) Island of Shadows, 2012)
 La Mer qui fond, Pocket Jeunesse, 2016 ((en) The Melting Sea, 2012)
 La Rivière maudite, Pocket Jeunesse, 2017 ((en) River of Lost Bear, 2013)
 Le Territoire des loups, Pocket Jeunesse, 2017 ((en) Forest of Wolves, 2014)
 L'Horizon céleste, Pocket Jeunesse, 2018 ((en) The Burning Horizon, 2015)
-Le Jour le plus long, Pocket Jeunesse, 2018 ((en) The Longest Day, 2016)
-Livres illustrés
-(en) Toklo's Story, 2010
-(en) Kallik's Adventure, 2011
-Univers Survivants
-Un jour, les hommes disparaissent, laissant les chiens seuls sur terre. Lucky, un chien solitaire va devoir s'unir aux siens pour survivre dans ce nouveau monde. De nombreux problèmes les attendront bien au-delà de la ville. Et de grandes décisions s'offriront à lui, doit-il rester avec ceux qu'il a toujours aimés et charriés ou rejoindre la meute sauvage dirigée par un demi-loup sans foi ni loi ?
-Cycle I : Survivants
-Lucky le solitaire, Pocket Jeunesse, 2015 ((en) The Empty City, 2012)
+Le Jour le plus long, Pocket Jeunesse, 2018 ((en) The Longest Day, 2016)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Univers La Quête des ours</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Livres illustrés</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(en) Toklo's Story, 2010
+(en) Kallik's Adventure, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Univers Survivants</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un jour, les hommes disparaissent, laissant les chiens seuls sur terre. Lucky, un chien solitaire va devoir s'unir aux siens pour survivre dans ce nouveau monde. De nombreux problèmes les attendront bien au-delà de la ville. Et de grandes décisions s'offriront à lui, doit-il rester avec ceux qu'il a toujours aimés et charriés ou rejoindre la meute sauvage dirigée par un demi-loup sans foi ni loi ?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Univers Survivants</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Cycle I : Survivants</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Lucky le solitaire, Pocket Jeunesse, 2015 ((en) The Empty City, 2012)
 L'Ennemi dans l'ombre, Pocket Jeunesse, 2015 ((en) A Hidden Ennemy, 2013)
 Des heures sombres, Pocket Jeunesse, 2016 ((en) Darknesse Falls, 2013)
 La Croisée de chemins, Pocket Jeunesse, 2016 ((en) The Broken Path, 2014)
 Le Lac sans fin, Pocket Jeunesse, 2017 ((en) The Endless Lake, 2014)
-Lucky dans la tourmente, Pocket Jeunesse, 2017 ((en) Storm of Dogs, 2015)
-Cycle II : The Gathering Darkness
-(en) A Pack Divided, 2015
+Lucky dans la tourmente, Pocket Jeunesse, 2017 ((en) Storm of Dogs, 2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Univers Survivants</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Cycle II : The Gathering Darkness</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(en) A Pack Divided, 2015
 (en) Dead of Night, 2016
 (en) Into the Shadows, 2017
 (en) Red Moon Rising, 2017
 (en) The Exile's Journey, 2018
-(en) The Final Battle, 2019
-Livres numériques
-Les livres numériques sont regroupés par trois en édition papier.
+(en) The Final Battle, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Univers Survivants</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Livres numériques</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Les livres numériques sont regroupés par trois en édition papier.
 (en) Tales from the Packs, 2015
 (en) Alpha's Tale, 2014
 (en) Sweet's Journey, 2015
-(en) Moon's Choice, 2015
-Univers Bravelands
-Cycle I : Bravelands
-Nouvelle Alliance, Pocket Jeunesse, 2019 ((en) Broken Pride, 2017)
+(en) Moon's Choice, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Univers Bravelands</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Cycle I : Bravelands</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Nouvelle Alliance, Pocket Jeunesse, 2019 ((en) Broken Pride, 2017)
 Le Code d'honneur, Pocket Jeunesse, 2020 ((en) Code of Honor, 2018)
 Par le sang, Pocket Jeunesse, 2020 ((en) Blood and Bone, 2018)
 La Menace des ombres, Pocket Jeunesse, 2021 ((en) Shifting Shadows, 2019)
 Les Mangeurs d'âmes, Pocket Jeunesse, 2021 ((en) The Spirit-Eaters, 2020)
-Le Serment des braves, Pocket Jeunesse, 2022 ((en) Oathkeeper, 2020)
-Cycle II : Curse of the Sandtongue
-(en) Shadows on the Mountain, 2021
+Le Serment des braves, Pocket Jeunesse, 2022 ((en) Oathkeeper, 2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Univers Bravelands</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Cycle II : Curse of the Sandtongue</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(en) Shadows on the Mountain, 2021
 (en) The Venom Spreads, 2022
-(en) Blood on the Plains, 2022
-Cycle III : Thunder on the Plains
-(en) The Shattered Horn, 2023
-(en) Breakers of the Code, 2024
-Univers Les Messagers du dragon
-Titre anglais de la série : Bamboo Kingdom.
+(en) Blood on the Plains, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Univers Bravelands</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Cycle III : Thunder on the Plains</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(en) The Shattered Horn, 2023
+(en) Breakers of the Code, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Univers Les Messagers du dragon</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Titre anglais de la série : Bamboo Kingdom.
 Sauvés des eaux, Pocket Jeunesse, 2022 ((en) Creatures of the Flood, 2021), 272 p.  (ISBN 978-2-26632-114-3)
 Une rivière de secrets, Pocket Jeunesse, 2022 ((en) River of Secrets, 2022), 272 p.  (ISBN 978-2-266-32115-0)
 La Montagne aux défis, Pocket Jeunesse, 2023 ((en) Journey to the Dragon Mountain, 2023), 304 p.  (ISBN 978-2-266-32116-7)
@@ -729,75 +1650,781 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Erin_Hunter</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Résumés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cycle I : La Guerre des clans
-Retour à l'état sauvage
-Depuis des générations, fidèles aux lois de leurs ancêtres, quatre clans de chats sauvages se partagent la forêt. Mais le Clan du Tonnerre court un grave danger et les sinistres guerriers de l'Ombre sont de plus en plus puissants. En s'aventurant un jour dans les bois, Rusty, petit chat domestique, est loin de se douter qu'il deviendra bientôt le plus valeureux des guerriers...
-À feu et à sang
-À présent Nuage de feu est devenu un guerrier. Il vit sous le nom de Cœur de feu. Malheureusement, Griffe de Tigre essaie de l'exclure du Clan. De plus des maladies et des accidents surviennent. Mais Étoile Bleue l'envoie en mission spéciale, retrouver le Clan du Vent. Mais ils ont déjà assez de problèmes et, déchiré, Cœur de Feu s'interroge « Comment peut-on aider les autres quand on doit s'aider soi-même ? »
-Les Mystères de la forêt
-Une inondation menace le Clan du Tonnerre : les alliances changent sans cesse. Cœur de Feu, lui continue d'enquêter sur la mort de Plume Rousse, l'ancien lieutenant. Il ne sait pas encore l'incroyable complot qu'il va découvrir... Seulement sera -il de taille ? Ce n'est pas tout, Griffe de Tigre essaie de le tuer à plusieurs reprises, lui et Étoile Bleue, Cœur de Feu va-t-il pouvoir survivre malgré cette menace ?
-Avant la tempête
-Cœur de Feu est le nouveau lieutenant du Clan du Tonnerre ! Cependant Griffe de Tigre, le traître, rôde encore et attend son heure. Mais un nouveau danger va s'abattre sur la forêt... Quoi donc ? Ce n'est pas tout, Étoile Bleue est gravement touchée par la trahison de son ancien lieutenant et Cœur de Feu est loin d'être respecté totalement par son Clan.
-Sur le sentier de la guerre
-Cœur de Feu est au rang de lieutenant depuis la trahison de Griffe de Tigre (Étoile du Tigre une fois chef dans le clan de l'ombre). Étoile bleue bouleversée par cette nouvelle n'est plus que l'ombre d'elle-même. Lors d'une Assemblée, le chef du Clan du Tonnerre déclare une « guerre » au clan du vent mais Cœur de Feu empêche le massacre. Étoile Bleue, encore plus folle que jamais, se met à penser que tout la trahi... Mais quand le jeune lieutenant découvre l'une de leurs reines, Plume Blanche, assassinée, il comprend que son chef n'est pas son seul problème. Une nouvelle menace, à cause d'Étoile du Tigre, hante la forêt. Et la fin sera tragique.
-Une sombre prophétie
-Après avoir sauvé son Clan, Étoile Bleue rejoignit le Clan des Étoiles et laissa la tribu du Tonnerre entre les pattes du jeune Cœur de Feu. Plus que jamais, le jeune meneur devra prouver sa valeur alors que son ennemi juré, Étoile du Tigre, monta un plan diabolique afin de gouverner sur la Forêt entière... Le Clan du Sang est parmi-eux ainsi que son meneur désastreux...
-Cycle II : La Dernière Prophétie
-Minuit
-Plusieurs lunes après la défaite du Clan du Sang, le Clan des Étoiles prit une grande décision et en fit part juste à un chat de chaque Clan, Griffe de Ronce est choisi pour sauver le Clan du Tonnerre, Jolie Plume pour le Clan de la Rivière, Pelage d'Or, le Clan de l'Ombre et Nuage Noir du Clan du Vent. Ils vont devoir "écouter les paroles de Minuit". Que veut dire cette mystérieuse prophétie ? Arriveront-ils au bout de cette mission ? Aidés de leurs amis Nuage d'Écureuil et Pelage d'Orage, les quatre élus vont en tous cas tout faire pour réussir, malgré leurs différences.
-Clair de Lune
-Pendant le voyage du retour vers leurs terres d'origine, les chats de la Forêt vont devoir faire face à bien des aventures dans les montagnes ! Recueillis par une Tribu dont ils ne sauraient dire si elle est amie ou ennemie, ils retiennent Pelage d'Orage... Ils vont affronter une menace plus terrible que toutes celles qu'ils ont déjà surmonté ! Mais pourquoi Pelage d'Orage doit rester dans cette Tribu ? Quelle menace les attend donc ?
-Aurore
-La terreur et la désolation règnent désormais sur la forêt, ravagée par les Bipèdes. Les quatre Clans vont devoir faire un choix: s'exiler ou mourir. Alors qu'Étoile de Feu prépare les siens au départ, les autres Clans hésitent encore à quitter le territoire de leurs ancêtres... Mais ils doivent faire vite, la Forêt se meurt déjà...
-Nuit étoilée
-Après des lunes d'errance, les quatre clans s'arrêtent enfin au bord d'un lac où Nuage d'Écureuil se fit nommer guerrière, c'est Poil d'Écureuil à présent pourtant est-ce bien là le territoire que leur destinait le Clan des Étoiles ? Beaucoup en doutent et craignent d'y subir la famine et la barbarie humaine. La tension est à son comble. Pour apaiser les siens, Nuage de Feuille, l'apprentie guérisseuse, sait qu'elle doit trouver au plus vite une nouvelle Pierre de Lune et renouer le contact avec les ancêtres. Sans leur aide, une guerre fratricide est inévitable mais elle en est encore loin, Étoile Filante meurt et choisit Moustache comme lieutenant à la place de Griffe de Pierre, ce dernier complote contre Moustache...
-Crépuscule
-Après la mort de Griffe de Pierre, du Clan du Vent, Moustache devient alors Étoile Solitaire mais le Clan du Vent se montre plus hostile que jamais malgré leur nouveau meneur à la bonne foi. Ils veulent faire comprendre aux autres que le Clan du Vent est très fort et n'a pas besoin d'aide, un choix qu'Étoile de Feu a du mal à accepter. Pendant ce temps, Griffe de Ronce devient de plus en plus ambitieux... Il s'occupe de tout dans le Clan du Tonnerre et se prend pour quelqu'un d'autre. Le guerrier veut-il prendre la place de Plume Grise ? Veut-il ensuite tuer Étoile de Feu pour devenir le nouveau meneur et gouverner la Forêt comme son père, Étoile du Tigre ? En tout cas, Poil d'Écureuil, la fille du meneur, ne le laissera pas faire, elle fera tout pour retrouver son compagnon d'autrefois mais va-t-elle y arriver ? Va-t-elle sauver son père ? Va-t-elle retrouver son compagnon ?
-Coucher de soleil
-L'attaque des blaireaux a laissé le clan du Tonnerre exsangue. Feuille de Lune entend alors en rêve une prophétie: "Avant que la paix revienne, le sang fera couler le sang et les eaux du lac deviendront pourpres." La jeune guérisseuse est atterrée. Son clan se remettra-t-il d'une nouvelle guerre? Hélas, une autre menace plane sur les siens: Étoile du Tigre, le traitre mort, hante ses fils chaque nuit. À travers eux, il espère se venger d'Étoile de Feu, et lui ôter d'un coup les sept vies qui lui restent... Si Griffe de Ronce arrive tant bien que mal à rester loyal envers son clan et son chef, Plume de Faucon lui, est prêt à tout pour prendre le pouvoir. Même à envoyer Étoile de Feu dans un traquenard pour lui prendre toutes ses vies...
-Cycle III : Le Pouvoir des Étoiles
-Vision
-Une prophétie comportant 3 chats commence avec la nomination de Petit Lion, Petit Houx et Petit Geai devenus Nuage de Lion, Nuage de Houx et Nuage de Geai. Ce dernier, aveugle, ne peut pas devenir apprenti guerrier et devient donc apprenti guérisseur. Son frère devient apprenti guerrier tout comme sa sœur. À leur première Assemblée, la tension monte entre les Clans, sans compter le retour de Plume Grise et de sa nouvelle compagne Millie, une chatte domestique. De plus, une bataille a lieu entre le Clan du Tonnerre et le Clan de l'Ombre. Pour adoucir tout ça, Poil d'Écureuil propose une Assemblée spéciale qui aura lieu en pleine journée et qui sera composée d'activités opposant les apprentis de chaque Clan. Que se passera-t-il lors de cette Assemblée ? Et que va décider Étoile de Feu concernant le lieutenant du Clan du Tonnerre ?
-Rivière noire
-Désormais apprentis, Nuage de Geai, Nuage de Lion et Nuage de Houx sont confrontés à des responsabilités nouvelles et à des choix difficiles. Tandis que le premier est hanté par des visions qu'il peine à maîtriser, son frère éprouve une amitié passionnée et interdite pour une apprentie rivale. Seule Nuage de Houx comprend que les quatre Clans du lac sont à l'aube d'un affrontement sanglant. Sans l'aide des siens, parviendra-t-elle à l'éviter ?
-Exil
-Autour du lac, la paix semble revenue. Mais l'arrivée de deux chats des montagnes bouleverse le Clan du Tonnerre. Ils supplient Étoile de Feu de les aider à vaincre une horde de félins sans foi ni loi. En quête d'aventure, les trois apprentis, Nuage de Lion, Nuage de Houx et Nuage de Geai, veulent faire partie de l'expédition. Ils en apprendront bien plus sur eux-mêmes qu'ils ne l'espéraient...
-Éclipse
-À peine rentrés de leur périple dans les montagnes, Nuage de Lion, Nuage de Houx et Nuage de Geai doivent faire face à une nouvelle épreuve : leur territoire est envahi par le Clan du Vent ! Les trois apprentis se jettent à corps perdu dans la bataille. Mais un danger bien plus grand les menace tous : certains combattants sont prêts à renoncer au code du guerrier. Qu'adviendra-t-il des quatre clans s'ils renient les valeurs de leurs ancêtres ?
-Pénombre
-C'est la panique autour du lac. Une épidémie s'est abattue sur les guerriers d'Étoile de Feu. Pour collecter le précieux remède qui pourrait les sauver, Feuille de Houx, Pelage de Lion et Nuage de Geai vont risquer leur vie en territoire hostile. Mais le sort leur réserve une autre épreuve, plus terrible encore. Tapi dans l'ombre de leur propre camp, un ennemi s'apprête à leur faire une révélation qui changera à jamais le cours de leur vie...
-Soleil levant
-Pelage de Granit a été assassiné. Tandis que la nouvelle jette le trouble dans le Clan du Tonnerre, un doute agite en secret Nuage de Houx et ses frères. Peuvent-ils être les élus dont parle la prophétie, alors qu'ils ont été adoptés et qu'ils n'appartiennent pas à la lignée du meneur ? Le Clan des Étoiles observe, impuissant, les ravages provoqués par les mensonges autour de leur naissance. La vérité doit éclater, même si elle a des conséquences dramatiques pour tout le clan...
-Cycle IV : Les Signes du destin
-Hors-série
-La Quête d'Étoile de Feu
-Étoile de Feu est le chef glorieux du Clan du Tonnerre. Tout pourrait aller pour le mieux si d'étranges rêves ne le hantaient pas... Étoile de Feu y découvre l'existence d'un cinquième Clan jusque-là inconnu : le Clan du Ciel. Mais ce Clan semble avoir été chassé de la forêt par les quatre autres clans. Ses ancêtres lui auraient-ils menti en prétendant que la forêt n'avait toujours compris que quatre Clans ? Auraient-ils trahi le Code du Guerrier si cher aux yeux d'Étoile de Feu ? C'est avec tous ces doutes que le chef du Clan du Tonnerre part en mission afin de reformer le Clan du Ciel et d'en retrouver les descendants...
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Cycle I : La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Retour à l'état sauvage</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis des générations, fidèles aux lois de leurs ancêtres, quatre clans de chats sauvages se partagent la forêt. Mais le Clan du Tonnerre court un grave danger et les sinistres guerriers de l'Ombre sont de plus en plus puissants. En s'aventurant un jour dans les bois, Rusty, petit chat domestique, est loin de se douter qu'il deviendra bientôt le plus valeureux des guerriers...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Cycle I : La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>À feu et à sang</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À présent Nuage de feu est devenu un guerrier. Il vit sous le nom de Cœur de feu. Malheureusement, Griffe de Tigre essaie de l'exclure du Clan. De plus des maladies et des accidents surviennent. Mais Étoile Bleue l'envoie en mission spéciale, retrouver le Clan du Vent. Mais ils ont déjà assez de problèmes et, déchiré, Cœur de Feu s'interroge « Comment peut-on aider les autres quand on doit s'aider soi-même ? »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Cycle I : La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Les Mystères de la forêt</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une inondation menace le Clan du Tonnerre : les alliances changent sans cesse. Cœur de Feu, lui continue d'enquêter sur la mort de Plume Rousse, l'ancien lieutenant. Il ne sait pas encore l'incroyable complot qu'il va découvrir... Seulement sera -il de taille ? Ce n'est pas tout, Griffe de Tigre essaie de le tuer à plusieurs reprises, lui et Étoile Bleue, Cœur de Feu va-t-il pouvoir survivre malgré cette menace ?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Cycle I : La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Avant la tempête</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cœur de Feu est le nouveau lieutenant du Clan du Tonnerre ! Cependant Griffe de Tigre, le traître, rôde encore et attend son heure. Mais un nouveau danger va s'abattre sur la forêt... Quoi donc ? Ce n'est pas tout, Étoile Bleue est gravement touchée par la trahison de son ancien lieutenant et Cœur de Feu est loin d'être respecté totalement par son Clan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Cycle I : La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Sur le sentier de la guerre</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cœur de Feu est au rang de lieutenant depuis la trahison de Griffe de Tigre (Étoile du Tigre une fois chef dans le clan de l'ombre). Étoile bleue bouleversée par cette nouvelle n'est plus que l'ombre d'elle-même. Lors d'une Assemblée, le chef du Clan du Tonnerre déclare une « guerre » au clan du vent mais Cœur de Feu empêche le massacre. Étoile Bleue, encore plus folle que jamais, se met à penser que tout la trahi... Mais quand le jeune lieutenant découvre l'une de leurs reines, Plume Blanche, assassinée, il comprend que son chef n'est pas son seul problème. Une nouvelle menace, à cause d'Étoile du Tigre, hante la forêt. Et la fin sera tragique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Cycle I : La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Une sombre prophétie</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir sauvé son Clan, Étoile Bleue rejoignit le Clan des Étoiles et laissa la tribu du Tonnerre entre les pattes du jeune Cœur de Feu. Plus que jamais, le jeune meneur devra prouver sa valeur alors que son ennemi juré, Étoile du Tigre, monta un plan diabolique afin de gouverner sur la Forêt entière... Le Clan du Sang est parmi-eux ainsi que son meneur désastreux...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Cycle II : La Dernière Prophétie</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Minuit</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs lunes après la défaite du Clan du Sang, le Clan des Étoiles prit une grande décision et en fit part juste à un chat de chaque Clan, Griffe de Ronce est choisi pour sauver le Clan du Tonnerre, Jolie Plume pour le Clan de la Rivière, Pelage d'Or, le Clan de l'Ombre et Nuage Noir du Clan du Vent. Ils vont devoir "écouter les paroles de Minuit". Que veut dire cette mystérieuse prophétie ? Arriveront-ils au bout de cette mission ? Aidés de leurs amis Nuage d'Écureuil et Pelage d'Orage, les quatre élus vont en tous cas tout faire pour réussir, malgré leurs différences.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Cycle II : La Dernière Prophétie</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Clair de Lune</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant le voyage du retour vers leurs terres d'origine, les chats de la Forêt vont devoir faire face à bien des aventures dans les montagnes ! Recueillis par une Tribu dont ils ne sauraient dire si elle est amie ou ennemie, ils retiennent Pelage d'Orage... Ils vont affronter une menace plus terrible que toutes celles qu'ils ont déjà surmonté ! Mais pourquoi Pelage d'Orage doit rester dans cette Tribu ? Quelle menace les attend donc ?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Cycle II : La Dernière Prophétie</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Aurore</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La terreur et la désolation règnent désormais sur la forêt, ravagée par les Bipèdes. Les quatre Clans vont devoir faire un choix: s'exiler ou mourir. Alors qu'Étoile de Feu prépare les siens au départ, les autres Clans hésitent encore à quitter le territoire de leurs ancêtres... Mais ils doivent faire vite, la Forêt se meurt déjà...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Cycle II : La Dernière Prophétie</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Nuit étoilée</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des lunes d'errance, les quatre clans s'arrêtent enfin au bord d'un lac où Nuage d'Écureuil se fit nommer guerrière, c'est Poil d'Écureuil à présent pourtant est-ce bien là le territoire que leur destinait le Clan des Étoiles ? Beaucoup en doutent et craignent d'y subir la famine et la barbarie humaine. La tension est à son comble. Pour apaiser les siens, Nuage de Feuille, l'apprentie guérisseuse, sait qu'elle doit trouver au plus vite une nouvelle Pierre de Lune et renouer le contact avec les ancêtres. Sans leur aide, une guerre fratricide est inévitable mais elle en est encore loin, Étoile Filante meurt et choisit Moustache comme lieutenant à la place de Griffe de Pierre, ce dernier complote contre Moustache...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Cycle II : La Dernière Prophétie</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Crépuscule</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la mort de Griffe de Pierre, du Clan du Vent, Moustache devient alors Étoile Solitaire mais le Clan du Vent se montre plus hostile que jamais malgré leur nouveau meneur à la bonne foi. Ils veulent faire comprendre aux autres que le Clan du Vent est très fort et n'a pas besoin d'aide, un choix qu'Étoile de Feu a du mal à accepter. Pendant ce temps, Griffe de Ronce devient de plus en plus ambitieux... Il s'occupe de tout dans le Clan du Tonnerre et se prend pour quelqu'un d'autre. Le guerrier veut-il prendre la place de Plume Grise ? Veut-il ensuite tuer Étoile de Feu pour devenir le nouveau meneur et gouverner la Forêt comme son père, Étoile du Tigre ? En tout cas, Poil d'Écureuil, la fille du meneur, ne le laissera pas faire, elle fera tout pour retrouver son compagnon d'autrefois mais va-t-elle y arriver ? Va-t-elle sauver son père ? Va-t-elle retrouver son compagnon ?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Cycle II : La Dernière Prophétie</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Coucher de soleil</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'attaque des blaireaux a laissé le clan du Tonnerre exsangue. Feuille de Lune entend alors en rêve une prophétie: "Avant que la paix revienne, le sang fera couler le sang et les eaux du lac deviendront pourpres." La jeune guérisseuse est atterrée. Son clan se remettra-t-il d'une nouvelle guerre? Hélas, une autre menace plane sur les siens: Étoile du Tigre, le traitre mort, hante ses fils chaque nuit. À travers eux, il espère se venger d'Étoile de Feu, et lui ôter d'un coup les sept vies qui lui restent... Si Griffe de Ronce arrive tant bien que mal à rester loyal envers son clan et son chef, Plume de Faucon lui, est prêt à tout pour prendre le pouvoir. Même à envoyer Étoile de Feu dans un traquenard pour lui prendre toutes ses vies...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Cycle III : Le Pouvoir des Étoiles</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Vision</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une prophétie comportant 3 chats commence avec la nomination de Petit Lion, Petit Houx et Petit Geai devenus Nuage de Lion, Nuage de Houx et Nuage de Geai. Ce dernier, aveugle, ne peut pas devenir apprenti guerrier et devient donc apprenti guérisseur. Son frère devient apprenti guerrier tout comme sa sœur. À leur première Assemblée, la tension monte entre les Clans, sans compter le retour de Plume Grise et de sa nouvelle compagne Millie, une chatte domestique. De plus, une bataille a lieu entre le Clan du Tonnerre et le Clan de l'Ombre. Pour adoucir tout ça, Poil d'Écureuil propose une Assemblée spéciale qui aura lieu en pleine journée et qui sera composée d'activités opposant les apprentis de chaque Clan. Que se passera-t-il lors de cette Assemblée ? Et que va décider Étoile de Feu concernant le lieutenant du Clan du Tonnerre ?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Cycle III : Le Pouvoir des Étoiles</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Rivière noire</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Désormais apprentis, Nuage de Geai, Nuage de Lion et Nuage de Houx sont confrontés à des responsabilités nouvelles et à des choix difficiles. Tandis que le premier est hanté par des visions qu'il peine à maîtriser, son frère éprouve une amitié passionnée et interdite pour une apprentie rivale. Seule Nuage de Houx comprend que les quatre Clans du lac sont à l'aube d'un affrontement sanglant. Sans l'aide des siens, parviendra-t-elle à l'éviter ?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Cycle III : Le Pouvoir des Étoiles</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Exil</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autour du lac, la paix semble revenue. Mais l'arrivée de deux chats des montagnes bouleverse le Clan du Tonnerre. Ils supplient Étoile de Feu de les aider à vaincre une horde de félins sans foi ni loi. En quête d'aventure, les trois apprentis, Nuage de Lion, Nuage de Houx et Nuage de Geai, veulent faire partie de l'expédition. Ils en apprendront bien plus sur eux-mêmes qu'ils ne l'espéraient...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Cycle III : Le Pouvoir des Étoiles</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Éclipse</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À peine rentrés de leur périple dans les montagnes, Nuage de Lion, Nuage de Houx et Nuage de Geai doivent faire face à une nouvelle épreuve : leur territoire est envahi par le Clan du Vent ! Les trois apprentis se jettent à corps perdu dans la bataille. Mais un danger bien plus grand les menace tous : certains combattants sont prêts à renoncer au code du guerrier. Qu'adviendra-t-il des quatre clans s'ils renient les valeurs de leurs ancêtres ?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Cycle III : Le Pouvoir des Étoiles</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Pénombre</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la panique autour du lac. Une épidémie s'est abattue sur les guerriers d'Étoile de Feu. Pour collecter le précieux remède qui pourrait les sauver, Feuille de Houx, Pelage de Lion et Nuage de Geai vont risquer leur vie en territoire hostile. Mais le sort leur réserve une autre épreuve, plus terrible encore. Tapi dans l'ombre de leur propre camp, un ennemi s'apprête à leur faire une révélation qui changera à jamais le cours de leur vie...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Cycle III : Le Pouvoir des Étoiles</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Soleil levant</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelage de Granit a été assassiné. Tandis que la nouvelle jette le trouble dans le Clan du Tonnerre, un doute agite en secret Nuage de Houx et ses frères. Peuvent-ils être les élus dont parle la prophétie, alors qu'ils ont été adoptés et qu'ils n'appartiennent pas à la lignée du meneur ? Le Clan des Étoiles observe, impuissant, les ravages provoqués par les mensonges autour de leur naissance. La vérité doit éclater, même si elle a des conséquences dramatiques pour tout le clan...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erin_Hunter</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Hors-série</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>La Quête d'Étoile de Feu</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étoile de Feu est le chef glorieux du Clan du Tonnerre. Tout pourrait aller pour le mieux si d'étranges rêves ne le hantaient pas... Étoile de Feu y découvre l'existence d'un cinquième Clan jusque-là inconnu : le Clan du Ciel. Mais ce Clan semble avoir été chassé de la forêt par les quatre autres clans. Ses ancêtres lui auraient-ils menti en prétendant que la forêt n'avait toujours compris que quatre Clans ? Auraient-ils trahi le Code du Guerrier si cher aux yeux d'Étoile de Feu ? C'est avec tous ces doutes que le chef du Clan du Tonnerre part en mission afin de reformer le Clan du Ciel et d'en retrouver les descendants...
 </t>
         </is>
       </c>
